--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\collage\Sem4\DBMS\Project\DBMS-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5190CF1D-D222-4784-976E-0838CC59B5DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A42E6-020C-4893-B863-1F03553B1B5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4692" xr2:uid="{C20CEABD-1002-4181-BAE0-3D6D1BCEC5E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>AccountID</t>
   </si>
@@ -256,13 +256,136 @@
   </si>
   <si>
     <t>478 Cherry St.</t>
+  </si>
+  <si>
+    <t>TransactionID</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TransactionDate</t>
+  </si>
+  <si>
+    <t>Description_Trans</t>
+  </si>
+  <si>
+    <t>BalanceAfterTransaction</t>
+  </si>
+  <si>
+    <t>DEBIT</t>
+  </si>
+  <si>
+    <t>Online purchase</t>
+  </si>
+  <si>
+    <t>In-store purchase</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>Employee reimbursement</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Interest earned</t>
+  </si>
+  <si>
+    <t>Online payment</t>
+  </si>
+  <si>
+    <t>Interest charge</t>
+  </si>
+  <si>
+    <t>Purchase reward</t>
+  </si>
+  <si>
+    <t>Cash advance</t>
+  </si>
+  <si>
+    <t>PayeeID</t>
+  </si>
+  <si>
+    <t>PayeeName</t>
+  </si>
+  <si>
+    <t>PayeeAccountNumber</t>
+  </si>
+  <si>
+    <t>PayeeBank</t>
+  </si>
+  <si>
+    <t>Autopay</t>
+  </si>
+  <si>
+    <t>PayeeType</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Acme Bank</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Acme Inc.</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>XYZ Inc.</t>
+  </si>
+  <si>
+    <t>Chase Bank</t>
+  </si>
+  <si>
+    <t>Office Supplies</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>ABC Utility</t>
+  </si>
+  <si>
+    <t>Gas and Electric</t>
+  </si>
+  <si>
+    <t>DEF Utility</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Local Property</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,16 +407,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -301,30 +450,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,25 +822,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C0A02-7727-45BE-9F33-8BC1A7E1B29D}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -667,499 +849,1137 @@
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>1001</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="10">
         <v>1101</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>5000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="9">
         <v>1620105600</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="12">
         <v>1011990</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="12">
         <v>1101</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>1002</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="10">
         <v>1102</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="9">
         <v>10000</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>1620105600</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="12">
         <v>2021985</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="12">
         <v>1102</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>1003</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="10">
         <v>1103</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>2000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="9">
         <v>1620105600</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="12">
         <v>3031995</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="12">
         <v>1103</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>1004</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="10">
         <v>1104</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9">
         <v>7000</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="9">
         <v>1620105600</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="12">
         <v>4041992</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="12">
         <v>1104</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>1005</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="10">
         <v>1105</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>15000</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="9">
         <v>1620105600</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="12">
         <v>5051997</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="12">
         <v>1105</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>1006</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="10">
         <v>1106</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>3000</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>1620105600</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="12">
         <v>6061994</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="12">
         <v>1106</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>1007</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="10">
         <v>1107</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>8000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>1620105600</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="12">
         <v>7071991</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="12">
         <v>1107</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>1008</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="10">
         <v>1108</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>12000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>1620105600</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="12">
         <v>8081993</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="12">
         <v>1108</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>1009</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="10">
         <v>1109</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9">
         <v>4000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="9">
         <v>1620105600</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="12">
         <v>9091996</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="12">
         <v>1109</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>1010</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="10">
         <v>1110</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9">
         <v>9000</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="9">
         <v>1620105600</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="12">
         <v>9091996</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="12">
         <v>1110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="5">
+        <v>100</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1620368000</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="5">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="5">
+        <v>50</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1620368001</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="5">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="5">
+        <v>200</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1620368002</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>3001</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1620368003</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>3002</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D19" s="5">
+        <v>15000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1620368004</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="5">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>4001</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1006</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="5">
+        <v>100</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1620368005</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>4002</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1007</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="5">
+        <v>100</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1620368006</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>4003</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1008</v>
+      </c>
+      <c r="D22" s="5">
+        <v>7000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="5">
+        <v>500</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1620368007</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="5">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>4004</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1009</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="5">
+        <v>300</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1620368008</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="5">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>4005</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D24" s="5">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="5">
+        <v>500</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1620368008</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="5">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>5001</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>5002</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1102</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="2">
+        <v>234567890</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>5003</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="2">
+        <v>345678901</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>5004</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1104</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="2">
+        <v>456789012</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>5005</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1105</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="2">
+        <v>567890123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>5006</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1106</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="2">
+        <v>678901234</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>5007</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1107</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="2">
+        <v>789012345</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>5008</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1108</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="2">
+        <v>890123456</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>5009</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1109</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="2">
+        <v>901234567</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>5010</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1110</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\collage\Sem4\DBMS\Project\DBMS-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A42E6-020C-4893-B863-1F03553B1B5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC5131B-BC71-4B55-A785-EE335BC9F63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4692" xr2:uid="{C20CEABD-1002-4181-BAE0-3D6D1BCEC5E2}"/>
   </bookViews>
@@ -469,22 +469,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -505,7 +493,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -824,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C0A02-7727-45BE-9F33-8BC1A7E1B29D}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,1136 +846,1136 @@
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1001</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="6">
         <v>1101</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <v>5000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="5">
         <v>1620105600</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="8">
         <v>1011990</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="8">
         <v>1101</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1002</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>1102</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>10000</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>1620105600</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="8">
         <v>2021985</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="8">
         <v>1102</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>1003</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>1103</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>2000</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>1620105600</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="8">
         <v>3031995</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="8">
         <v>1103</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>1004</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>1104</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>7000</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>1620105600</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="8">
         <v>4041992</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="8">
         <v>1104</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>1005</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>1105</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>15000</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>1620105600</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="8">
         <v>5051997</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="8">
         <v>1105</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>1006</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>1106</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>3000</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>1620105600</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="8">
         <v>6061994</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="8">
         <v>1106</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>1007</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>1107</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>8000</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>1620105600</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="8">
         <v>7071991</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="8">
         <v>1107</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>1008</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>1108</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>12000</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>1620105600</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="8">
         <v>8081993</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="8">
         <v>1108</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>1009</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>1109</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>4000</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>1620105600</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="8">
         <v>9091996</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="8">
         <v>1109</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>1010</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>1110</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>9000</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>1620105600</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="8">
         <v>9091996</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="8">
         <v>1110</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>2000</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="11">
         <v>1001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="11">
         <v>3000</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="11">
         <v>1620105600</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="11">
         <v>100</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="11">
         <v>1620368000</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="11">
         <v>2900</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>2001</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="11">
         <v>1002</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="11">
         <v>3000</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="11">
         <v>1620105600</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="11">
         <v>50</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="11">
         <v>1620368001</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="11">
         <v>2950</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>2002</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="11">
         <v>1003</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="11">
         <v>5000</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="11">
         <v>1620105600</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="11">
         <v>200</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="11">
         <v>1620368002</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="11">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>3001</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="11">
         <v>1004</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="11">
         <v>10000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="11">
         <v>1620105600</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="11">
         <v>2000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="11">
         <v>1620368003</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="11">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>3002</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="11">
         <v>1005</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="11">
         <v>15000</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="11">
         <v>1620105600</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="11">
         <v>1000</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="11">
         <v>1620368004</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="11">
         <v>16000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>4001</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="11">
         <v>1006</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="11">
         <v>4000</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="11">
         <v>1620105600</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="11">
         <v>100</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="11">
         <v>1620368005</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="11">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>4002</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="11">
         <v>1007</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="11">
         <v>4000</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="11">
         <v>1620105600</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="11">
         <v>100</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="11">
         <v>1620368006</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="11">
         <v>3800</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>4003</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="11">
         <v>1008</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="11">
         <v>7000</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="11">
         <v>1620105600</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="11">
         <v>500</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="11">
         <v>1620368007</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="11">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>4004</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="11">
         <v>1009</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="11">
         <v>7000</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="11">
         <v>1620105600</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="11">
         <v>300</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="11">
         <v>1620368008</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="11">
         <v>7200</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
         <v>4005</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="11">
         <v>1010</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="11">
         <v>7000</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="11">
         <v>1620105600</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="11">
         <v>500</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="11">
         <v>1620368008</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="11">
         <v>6900</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>5001</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="6">
         <v>1101</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="6">
         <v>123456789</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="6">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>5002</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="6">
         <v>1102</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="6">
         <v>234567890</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="6">
         <v>1</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>5003</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="6">
         <v>1103</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="6">
         <v>345678901</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="6">
         <v>1</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>5004</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="6">
         <v>1104</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="6">
         <v>456789012</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="6">
         <v>1</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>5005</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="6">
         <v>1105</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="6">
         <v>567890123</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="6">
         <v>1</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>5006</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="6">
         <v>1106</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="6">
         <v>678901234</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>5007</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="6">
         <v>1107</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="6">
         <v>789012345</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="6">
         <v>1</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>5008</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>1108</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="6">
         <v>890123456</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="6">
         <v>1</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>5009</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>1109</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="6">
         <v>901234567</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>5010</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="6">
         <v>1110</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <v>1234567890</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="6">
         <v>1</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="6" t="s">
         <v>102</v>
       </c>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\collage\Sem4\DBMS\Project\DBMS-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC5131B-BC71-4B55-A785-EE335BC9F63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8C208C-051A-43A7-B205-00E16992FEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4692" xr2:uid="{C20CEABD-1002-4181-BAE0-3D6D1BCEC5E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
   <si>
     <t>AccountID</t>
   </si>
@@ -379,13 +379,94 @@
   </si>
   <si>
     <t>Local Property</t>
+  </si>
+  <si>
+    <t>SessionID</t>
+  </si>
+  <si>
+    <t>SessionStart</t>
+  </si>
+  <si>
+    <t>SessionEnd</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>SecurityID</t>
+  </si>
+  <si>
+    <t>Question1</t>
+  </si>
+  <si>
+    <t>Answer1</t>
+  </si>
+  <si>
+    <t>What is your favorite color?</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>What is your pet's name?</t>
+  </si>
+  <si>
+    <t>Fluffy</t>
+  </si>
+  <si>
+    <t>What is your favorite sports team?</t>
+  </si>
+  <si>
+    <t>NY Yankees</t>
+  </si>
+  <si>
+    <t>What is your favorite movie?</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>What is your favorite book?</t>
+  </si>
+  <si>
+    <t>To Kill a Mockingbird</t>
+  </si>
+  <si>
+    <t>What is your favorite food?</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>What is your favorite band?</t>
+  </si>
+  <si>
+    <t>The Beatles</t>
+  </si>
+  <si>
+    <t>What is your favorite TV show?</t>
+  </si>
+  <si>
+    <t>Game of Thrones</t>
+  </si>
+  <si>
+    <t>What is your favorite holiday?</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>What is your favorite superhero?</t>
+  </si>
+  <si>
+    <t>Superman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +508,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -466,10 +562,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -502,11 +599,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -819,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C0A02-7727-45BE-9F33-8BC1A7E1B29D}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,26 +1839,26 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1978,6 +2091,372 @@
       <c r="G36" s="6" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>3001</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1620105600</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1620105660</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>3002</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1102</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1620105660</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1620105720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>3003</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1103</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1620105720</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1620105780</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>3004</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1104</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1620105780</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1620105840</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>3005</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1105</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1620105840</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1620105900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>3006</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1106</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1620105900</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1620105960</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>3007</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1107</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1620105960</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1620106020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>3008</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1108</v>
+      </c>
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1620106020</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1620106080</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>3009</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1109</v>
+      </c>
+      <c r="C48" s="10">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1620106080</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1620106140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>3010</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1110</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1620106140</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1620106200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
+        <v>1001</v>
+      </c>
+      <c r="B52" s="16">
+        <v>1101</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <v>1002</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1102</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>1003</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1103</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
+        <v>1004</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1104</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
+        <v>1005</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1105</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>1006</v>
+      </c>
+      <c r="B57" s="16">
+        <v>1106</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
+        <v>1007</v>
+      </c>
+      <c r="B58" s="16">
+        <v>1107</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
+        <v>1008</v>
+      </c>
+      <c r="B59" s="16">
+        <v>1108</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
+        <v>1009</v>
+      </c>
+      <c r="B60" s="16">
+        <v>1109</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="16">
+        <v>1010</v>
+      </c>
+      <c r="B61" s="16">
+        <v>1110</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\collage\Sem4\DBMS\Project\DBMS-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8C208C-051A-43A7-B205-00E16992FEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D211063E-3363-489F-937B-BE33BF3E0001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4692" xr2:uid="{C20CEABD-1002-4181-BAE0-3D6D1BCEC5E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="157">
   <si>
     <t>AccountID</t>
   </si>
@@ -393,9 +393,6 @@
     <t>token</t>
   </si>
   <si>
-    <t>SecurityID</t>
-  </si>
-  <si>
     <t>Question1</t>
   </si>
   <si>
@@ -460,13 +457,52 @@
   </si>
   <si>
     <t>Superman</t>
+  </si>
+  <si>
+    <t>CardID</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>CardType</t>
+  </si>
+  <si>
+    <t>Expiry</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>InterestRate</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>MoneyMarket</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>RewardsChecking</t>
+  </si>
+  <si>
+    <t>CreditCard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,11 +532,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9.6"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.6"/>
@@ -511,14 +547,7 @@
     <font>
       <b/>
       <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -562,11 +591,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -590,36 +618,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -934,24 +967,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C0A02-7727-45BE-9F33-8BC1A7E1B29D}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -1455,410 +1488,410 @@
       </c>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>2000</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>1001</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>3000</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>1620105600</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>100</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>1620368000</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>2900</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>2001</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>1002</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>3000</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>1620105600</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>50</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>1620368001</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>2950</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>2002</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>1003</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>5000</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>1620105600</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>200</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>1620368002</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>5200</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>3001</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>1004</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>10000</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>1620105600</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>2000</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>1620368003</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>8000</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>3002</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>1005</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>15000</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>1620105600</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>1000</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>1620368004</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>16000</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>4001</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>1006</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>4000</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>1620105600</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>100</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>1620368005</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>3900</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>4002</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>1007</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>4000</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>1620105600</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>100</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>1620368006</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>3800</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>4003</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>1008</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>7000</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>1620105600</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>500</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>1620368007</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>7500</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>4004</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>1009</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>7000</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>1620105600</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>300</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>1620368008</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>7200</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>4005</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>1010</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>7000</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>1620105600</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>500</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>1620368008</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <v>6900</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2093,19 +2126,19 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="19" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2116,7 +2149,7 @@
       <c r="B40" s="5">
         <v>1101</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>1</v>
       </c>
       <c r="D40" s="5">
@@ -2133,7 +2166,7 @@
       <c r="B41" s="5">
         <v>1102</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>1</v>
       </c>
       <c r="D41" s="5">
@@ -2150,7 +2183,7 @@
       <c r="B42" s="5">
         <v>1103</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>1</v>
       </c>
       <c r="D42" s="5">
@@ -2167,7 +2200,7 @@
       <c r="B43" s="5">
         <v>1104</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>1</v>
       </c>
       <c r="D43" s="5">
@@ -2184,7 +2217,7 @@
       <c r="B44" s="5">
         <v>1105</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>1</v>
       </c>
       <c r="D44" s="5">
@@ -2201,7 +2234,7 @@
       <c r="B45" s="5">
         <v>1106</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>1</v>
       </c>
       <c r="D45" s="5">
@@ -2218,7 +2251,7 @@
       <c r="B46" s="5">
         <v>1107</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>1</v>
       </c>
       <c r="D46" s="5">
@@ -2235,7 +2268,7 @@
       <c r="B47" s="5">
         <v>1108</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>1</v>
       </c>
       <c r="D47" s="5">
@@ -2252,7 +2285,7 @@
       <c r="B48" s="5">
         <v>1109</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>1</v>
       </c>
       <c r="D48" s="5">
@@ -2262,14 +2295,14 @@
         <v>1620106140</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>3010</v>
       </c>
       <c r="B49" s="5">
         <v>1110</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>1</v>
       </c>
       <c r="D49" s="5">
@@ -2279,184 +2312,377 @@
         <v>1620106200</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C50" s="12"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:13" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="C51" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="G51" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>1101</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="5">
+        <v>5620</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1101</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1234567890123450</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="16">
+        <v>45505</v>
+      </c>
+      <c r="J52" s="5">
         <v>123</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
-        <v>1001</v>
-      </c>
-      <c r="B52" s="16">
-        <v>1101</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="16" t="s">
+      <c r="L52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>1102</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
-        <v>1002</v>
-      </c>
-      <c r="B53" s="16">
+      <c r="C53" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="5">
+        <v>5621</v>
+      </c>
+      <c r="F53" s="5">
         <v>1102</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="16" t="s">
+      <c r="G53" s="15">
+        <v>1234567890123450</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="16">
+        <v>45536</v>
+      </c>
+      <c r="J53" s="5">
+        <v>123</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>1103</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
-        <v>1003</v>
-      </c>
-      <c r="B54" s="16">
+      <c r="C54" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="5">
+        <v>5622</v>
+      </c>
+      <c r="F54" s="5">
         <v>1103</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="16" t="s">
+      <c r="G54" s="15">
+        <v>1234567890123460</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I54" s="16">
+        <v>45566</v>
+      </c>
+      <c r="J54" s="5">
+        <v>123</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>1104</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
-        <v>1004</v>
-      </c>
-      <c r="B55" s="16">
+      <c r="C55" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="5">
+        <v>5623</v>
+      </c>
+      <c r="F55" s="5">
         <v>1104</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="16" t="s">
+      <c r="G55" s="15">
+        <v>1234567890123460</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I55" s="16">
+        <v>45597</v>
+      </c>
+      <c r="J55" s="5">
+        <v>123</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>1105</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
-        <v>1005</v>
-      </c>
-      <c r="B56" s="16">
+      <c r="C56" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="5">
+        <v>5624</v>
+      </c>
+      <c r="F56" s="5">
         <v>1105</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="16" t="s">
+      <c r="G56" s="15">
+        <v>1234567890123460</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I56" s="16">
+        <v>45627</v>
+      </c>
+      <c r="J56" s="5">
+        <v>123</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M56" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>1106</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
-        <v>1006</v>
-      </c>
-      <c r="B57" s="16">
+      <c r="C57" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="5">
+        <v>5625</v>
+      </c>
+      <c r="F57" s="5">
         <v>1106</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="16" t="s">
+      <c r="G57" s="15">
+        <v>1234567890123470</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="16">
+        <v>45658</v>
+      </c>
+      <c r="J57" s="5">
+        <v>123</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>1107</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
-        <v>1007</v>
-      </c>
-      <c r="B58" s="16">
+      <c r="C58" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="5">
+        <v>5626</v>
+      </c>
+      <c r="F58" s="5">
         <v>1107</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="16" t="s">
+      <c r="G58" s="15">
+        <v>1234567890123470</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I58" s="16">
+        <v>45689</v>
+      </c>
+      <c r="J58" s="5">
+        <v>123</v>
+      </c>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>1108</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
-        <v>1008</v>
-      </c>
-      <c r="B59" s="16">
+      <c r="C59" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="5">
+        <v>5627</v>
+      </c>
+      <c r="F59" s="5">
         <v>1108</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="16" t="s">
+      <c r="G59" s="15">
+        <v>1234567890123470</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" s="16">
+        <v>45717</v>
+      </c>
+      <c r="J59" s="5">
+        <v>123</v>
+      </c>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>1109</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
-        <v>1009</v>
-      </c>
-      <c r="B60" s="16">
+      <c r="C60" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" s="5">
+        <v>5628</v>
+      </c>
+      <c r="F60" s="5">
         <v>1109</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="16" t="s">
+      <c r="G60" s="15">
+        <v>1234567890123480</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I60" s="16">
+        <v>45748</v>
+      </c>
+      <c r="J60" s="5">
+        <v>123</v>
+      </c>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>1110</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="16">
-        <v>1010</v>
-      </c>
-      <c r="B61" s="16">
+      <c r="C61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="5">
+        <v>5629</v>
+      </c>
+      <c r="F61" s="5">
         <v>1110</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
+      <c r="G61" s="15">
+        <v>1234567890123480</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I61" s="16">
+        <v>45778</v>
+      </c>
+      <c r="J61" s="5">
+        <v>123</v>
+      </c>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\collage\Sem4\DBMS\Project\DBMS-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D211063E-3363-489F-937B-BE33BF3E0001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A435127-569A-43B5-A842-90F285DE0C26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4692" xr2:uid="{C20CEABD-1002-4181-BAE0-3D6D1BCEC5E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="247">
   <si>
     <t>AccountID</t>
   </si>
@@ -496,6 +496,276 @@
   </si>
   <si>
     <t>CreditCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 1     ,1001  ,10000     ,0.05       ,60      ,1614028400,"Active")       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 2     ,1002  ,15000     ,0.06       ,36      ,1614114800,"Pending")      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 3     ,1003  ,20000     ,0.07       ,48      ,1614201200,"Active")       </t>
+  </si>
+  <si>
+    <t>( 4     ,1004  ,5000      ,0.08       ,24      ,1614287600,"In Progress")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 5     ,1005  ,12000     ,0.05       ,60      ,1614374000,"Completed")    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 6     ,1006  ,8000      ,0.06       ,36      ,1614460400,"Active")       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 7     ,1007  ,25000     ,0.07       ,48      ,1614546800,"Pending")      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 8     ,1008  ,30000     ,0.08       ,24      ,1614633200,"In Progress") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 9     ,1009  ,15000     ,0.05       ,60      ,1614719600,"Completed")    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 10    ,1010  ,20000     ,0.06       ,36      ,1614806000,"Active")       </t>
+  </si>
+  <si>
+    <t>(1, 1101, 'Welcome to our banking services! Your account is now active.'),</t>
+  </si>
+  <si>
+    <t>(2, 1102, 'We are sorry to inform you that your last transaction was declined due to insufficient funds.'),</t>
+  </si>
+  <si>
+    <t>(3, 1103, 'Your new credit card has been issued and is on its way. Your card number is 1234-5678-9012-3456.'),</t>
+  </si>
+  <si>
+    <t>(4, 1104, 'Please update your account information to ensure the security of your account.'),</t>
+  </si>
+  <si>
+    <t>(5, 1105, 'Your loan application has been approved. You will receive further details via email.'),</t>
+  </si>
+  <si>
+    <t>(6, 1106, 'Your account will be charged a $10 monthly maintenance fee starting from next month.'),</t>
+  </si>
+  <si>
+    <t>(7, 1107, 'We are pleased to offer you a 0.5% interest rate increase on your savings account.'),</t>
+  </si>
+  <si>
+    <t>(8, 1108, 'Your account has been locked for security reasons. Please contact customer service to unlock it.'),</t>
+  </si>
+  <si>
+    <t>(9, 1109, 'Your account balance is low. Please make a deposit to avoid any service interruptions.'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 1110, 'Thank you for choosing our bank. We appreciate your business and look forward to serving you in the future.');    </t>
+  </si>
+  <si>
+    <t>('USD', 'EUR', 0.84),</t>
+  </si>
+  <si>
+    <t>('USD', 'GBP', 0.73),</t>
+  </si>
+  <si>
+    <t>('USD', 'JPY', 111.56),</t>
+  </si>
+  <si>
+    <t>('USD', 'CAD', 1.27),</t>
+  </si>
+  <si>
+    <t>('USD', 'CHF', 0.93),</t>
+  </si>
+  <si>
+    <t>('USD', 'AUD', 1.32),</t>
+  </si>
+  <si>
+    <t>('USD', 'CNY', 6.38),</t>
+  </si>
+  <si>
+    <t>('USD', 'SEK', 8.55),</t>
+  </si>
+  <si>
+    <t>('USD', 'NZD', 1.43),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('USD', 'NOK', 8.62);   </t>
+  </si>
+  <si>
+    <t>(1, 'Headquarters', 'New York, NY'),</t>
+  </si>
+  <si>
+    <t>(2, 'Midtown Branch', 'New York, NY'),</t>
+  </si>
+  <si>
+    <t>(3, 'Brooklyn Branch', 'Brooklyn, NY'),</t>
+  </si>
+  <si>
+    <t>(4, 'Queens Branch', 'Queens, NY'),</t>
+  </si>
+  <si>
+    <t>(5, 'Bronx Branch', 'Bronx, NY'),</t>
+  </si>
+  <si>
+    <t>(6, 'Manhattan Branch', 'Manhattan, NY'),</t>
+  </si>
+  <si>
+    <t>(7, 'Staten Island Branch', 'Staten Island, NY'),</t>
+  </si>
+  <si>
+    <t>(8, 'Jersey City Branch', 'Jersey City, NJ'),</t>
+  </si>
+  <si>
+    <t>(9, 'Newark Branch', 'Newark, NJ'),</t>
+  </si>
+  <si>
+    <t>(10, 'Philadelphia Branch', 'Philadelphia, PA');</t>
+  </si>
+  <si>
+    <t>(1, '123 Main St, Anytown, USA', 'Operational'),</t>
+  </si>
+  <si>
+    <t>(2, '456 Elm St, Anytown, USA', 'Out of Service'),</t>
+  </si>
+  <si>
+    <t>(3, '789 Oak St, Anytown, USA', 'Operational'),</t>
+  </si>
+  <si>
+    <t>(4, '101 Maple Ave, Anytown, USA', 'Operational'),</t>
+  </si>
+  <si>
+    <t>(5, '202 Pine Rd, Anytown, USA', 'Operational'),</t>
+  </si>
+  <si>
+    <t>(6, '303 Birch Blvd, Anytown, USA', 'Operational'),</t>
+  </si>
+  <si>
+    <t>(7, '404 Cedar Dr, Anytown, USA', 'Out of Service'),</t>
+  </si>
+  <si>
+    <t>(8, '505 Willow Way, Anytown, USA', 'Operational'),</t>
+  </si>
+  <si>
+    <t>(9, '606 Hickory Hwy, Anytown, USA', 'Operational'),</t>
+  </si>
+  <si>
+    <t>(10, '707 Cherry Cir, Anytown, USA', 'Operational');</t>
+  </si>
+  <si>
+    <t>RequestID</t>
+  </si>
+  <si>
+    <t>RequestType</t>
+  </si>
+  <si>
+    <t>CSR_Description</t>
+  </si>
+  <si>
+    <t>CSR_Status</t>
+  </si>
+  <si>
+    <t>AssignedTo</t>
+  </si>
+  <si>
+    <t>AccountUpdate</t>
+  </si>
+  <si>
+    <t>Request to change account address</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>PasswordReset</t>
+  </si>
+  <si>
+    <t>Password reset request</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>NewAccount</t>
+  </si>
+  <si>
+    <t>Request for new checking account</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t>LoanInquiry</t>
+  </si>
+  <si>
+    <t>Inquiry about home loan options</t>
+  </si>
+  <si>
+    <t>FraudAlert</t>
+  </si>
+  <si>
+    <t>Report of possible fraudulent activity</t>
+  </si>
+  <si>
+    <t>CardReplacement</t>
+  </si>
+  <si>
+    <t>Request to replace lost credit card</t>
+  </si>
+  <si>
+    <t>AccountClosure</t>
+  </si>
+  <si>
+    <t>Request to close account</t>
+  </si>
+  <si>
+    <t>CreditLimitIncrease</t>
+  </si>
+  <si>
+    <t>Request for credit limit increase</t>
+  </si>
+  <si>
+    <t>DisputeTransaction</t>
+  </si>
+  <si>
+    <t>Dispute of recent transaction</t>
+  </si>
+  <si>
+    <t>AccountTransfer</t>
+  </si>
+  <si>
+    <t>Request to transfer funds between accounts</t>
+  </si>
+  <si>
+    <t>(1, 1101, 'Login'),</t>
+  </si>
+  <si>
+    <t>(2, 1102, 'PasswordChange'),</t>
+  </si>
+  <si>
+    <t>(3, 1103, 'FundTransfer'),</t>
+  </si>
+  <si>
+    <t>(4, 1104, 'AccountCreation'),</t>
+  </si>
+  <si>
+    <t>(5, 1105, 'LoanApplication'),</t>
+  </si>
+  <si>
+    <t>(6, 1106, 'PasswordReset'),</t>
+  </si>
+  <si>
+    <t>(7, 1107, 'CardRequest'),</t>
+  </si>
+  <si>
+    <t>(8, 1108, 'AccountDeletion'),</t>
+  </si>
+  <si>
+    <t>(9, 1109, 'StatementRequest'),</t>
+  </si>
+  <si>
+    <t>(10, 1110, 'Deposit');</t>
   </si>
 </sst>
 </file>
@@ -539,12 +809,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9.6"/>
       <color theme="1"/>
@@ -552,8 +816,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +833,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -633,9 +909,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -645,11 +918,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C0A02-7727-45BE-9F33-8BC1A7E1B29D}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,22 +1275,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4"/>
@@ -1038,22 +1320,22 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="19">
         <v>1001</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="20">
         <v>1101</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="19">
         <v>5000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="19">
         <v>1620105600</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="7"/>
@@ -1083,22 +1365,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="19">
         <v>1002</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="20">
         <v>1102</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="19">
         <v>10000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="19">
         <v>1620105600</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="7"/>
@@ -1128,22 +1410,22 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="19">
         <v>1003</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="20">
         <v>1103</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="19">
         <v>2000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="19">
         <v>1620105600</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="7"/>
@@ -1173,22 +1455,22 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="19">
         <v>1004</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="20">
         <v>1104</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="19">
         <v>7000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="19">
         <v>1620105600</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="7"/>
@@ -1218,22 +1500,22 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="19">
         <v>1005</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="20">
         <v>1105</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="19">
         <v>15000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="19">
         <v>1620105600</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="7"/>
@@ -1263,22 +1545,22 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="19">
         <v>1006</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="20">
         <v>1106</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="19">
         <v>3000</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="19">
         <v>1620105600</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="7"/>
@@ -1308,22 +1590,22 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="19">
         <v>1007</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="20">
         <v>1107</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="19">
         <v>8000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="19">
         <v>1620105600</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="7"/>
@@ -1353,22 +1635,22 @@
       </c>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="19">
         <v>1008</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="20">
         <v>1108</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="19">
         <v>12000</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="19">
         <v>1620105600</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="7"/>
@@ -1398,22 +1680,22 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="19">
         <v>1009</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="20">
         <v>1109</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="19">
         <v>4000</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="19">
         <v>1620105600</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="19" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="7"/>
@@ -1443,22 +1725,22 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="19">
         <v>1010</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="20">
         <v>1110</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="19">
         <v>9000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="19">
         <v>1620105600</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="7"/>
@@ -1488,37 +1770,37 @@
       </c>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="16" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2126,19 +2408,19 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2315,7 +2597,7 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:13" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>1</v>
       </c>
@@ -2325,28 +2607,28 @@
       <c r="C51" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="L51" s="17" t="s">
+      <c r="L51" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M51" s="17" t="s">
+      <c r="M51" s="12" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2366,13 +2648,13 @@
       <c r="F52" s="5">
         <v>1101</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="14">
         <v>1234567890123450</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="15">
         <v>45505</v>
       </c>
       <c r="J52" s="5">
@@ -2401,13 +2683,13 @@
       <c r="F53" s="5">
         <v>1102</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="14">
         <v>1234567890123450</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="15">
         <v>45536</v>
       </c>
       <c r="J53" s="5">
@@ -2436,13 +2718,13 @@
       <c r="F54" s="5">
         <v>1103</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="14">
         <v>1234567890123460</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="15">
         <v>45566</v>
       </c>
       <c r="J54" s="5">
@@ -2471,13 +2753,13 @@
       <c r="F55" s="5">
         <v>1104</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="14">
         <v>1234567890123460</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="15">
         <v>45597</v>
       </c>
       <c r="J55" s="5">
@@ -2506,13 +2788,13 @@
       <c r="F56" s="5">
         <v>1105</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="14">
         <v>1234567890123460</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="15">
         <v>45627</v>
       </c>
       <c r="J56" s="5">
@@ -2541,13 +2823,13 @@
       <c r="F57" s="5">
         <v>1106</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="14">
         <v>1234567890123470</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="15">
         <v>45658</v>
       </c>
       <c r="J57" s="5">
@@ -2576,13 +2858,13 @@
       <c r="F58" s="5">
         <v>1107</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="14">
         <v>1234567890123470</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="15">
         <v>45689</v>
       </c>
       <c r="J58" s="5">
@@ -2607,13 +2889,13 @@
       <c r="F59" s="5">
         <v>1108</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="14">
         <v>1234567890123470</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="15">
         <v>45717</v>
       </c>
       <c r="J59" s="5">
@@ -2638,13 +2920,13 @@
       <c r="F60" s="5">
         <v>1109</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="14">
         <v>1234567890123480</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="15">
         <v>45748</v>
       </c>
       <c r="J60" s="5">
@@ -2669,13 +2951,13 @@
       <c r="F61" s="5">
         <v>1110</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="14">
         <v>1234567890123480</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="15">
         <v>45778</v>
       </c>
       <c r="J61" s="5">
@@ -2683,6 +2965,446 @@
       </c>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
+    </row>
+    <row r="64" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="6">
+        <v>2</v>
+      </c>
+      <c r="E88" s="6">
+        <v>2</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" s="6">
+        <v>3</v>
+      </c>
+      <c r="E89" s="6">
+        <v>3</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="6">
+        <v>4</v>
+      </c>
+      <c r="E90" s="6">
+        <v>4</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" s="6">
+        <v>5</v>
+      </c>
+      <c r="E91" s="6">
+        <v>5</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" s="6">
+        <v>6</v>
+      </c>
+      <c r="E92" s="6">
+        <v>6</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" s="6">
+        <v>7</v>
+      </c>
+      <c r="E93" s="6">
+        <v>7</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="6">
+        <v>8</v>
+      </c>
+      <c r="E94" s="6">
+        <v>8</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" s="6">
+        <v>9</v>
+      </c>
+      <c r="E95" s="6">
+        <v>9</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="6">
+        <v>10</v>
+      </c>
+      <c r="E96" s="6">
+        <v>10</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\collage\Sem4\DBMS\Project\DBMS-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A435127-569A-43B5-A842-90F285DE0C26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B7736C-02B2-4778-9376-17A32C91AD2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4692" xr2:uid="{C20CEABD-1002-4181-BAE0-3D6D1BCEC5E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4692" activeTab="1" xr2:uid="{C20CEABD-1002-4181-BAE0-3D6D1BCEC5E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="254">
   <si>
     <t>AccountID</t>
   </si>
@@ -766,6 +767,27 @@
   </si>
   <si>
     <t>(10, 1110, 'Deposit');</t>
+  </si>
+  <si>
+    <t>LoanID</t>
+  </si>
+  <si>
+    <t>LoanAmount</t>
+  </si>
+  <si>
+    <t>LoanTerm</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>Loan_Status</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -870,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -933,6 +955,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C0A02-7727-45BE-9F33-8BC1A7E1B29D}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3410,4 +3433,496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E76B7-C690-4591-9FC0-07BCECEB63F8}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1101</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1614028400</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1102</v>
+      </c>
+      <c r="C3">
+        <v>15000</v>
+      </c>
+      <c r="D3">
+        <v>0.06</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1614114800</v>
+      </c>
+      <c r="G3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1103</v>
+      </c>
+      <c r="C4">
+        <v>20000</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1614201200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1104</v>
+      </c>
+      <c r="C5">
+        <v>5000</v>
+      </c>
+      <c r="D5">
+        <v>0.08</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1614287600</v>
+      </c>
+      <c r="G5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1105</v>
+      </c>
+      <c r="C6">
+        <v>12000</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1614374000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1106</v>
+      </c>
+      <c r="C7">
+        <v>8000</v>
+      </c>
+      <c r="D7">
+        <v>0.06</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1614460400</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1107</v>
+      </c>
+      <c r="C8">
+        <v>25000</v>
+      </c>
+      <c r="D8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1614546800</v>
+      </c>
+      <c r="G8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1108</v>
+      </c>
+      <c r="C9">
+        <v>30000</v>
+      </c>
+      <c r="D9">
+        <v>0.08</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1614633200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1109</v>
+      </c>
+      <c r="C10">
+        <v>15000</v>
+      </c>
+      <c r="D10">
+        <v>0.05</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1614719600</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1110</v>
+      </c>
+      <c r="C11">
+        <v>20000</v>
+      </c>
+      <c r="D11">
+        <v>0.06</v>
+      </c>
+      <c r="E11">
+        <v>36</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1614806000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>1107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>1109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>1110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>